--- a/Proteomics/Terminal/analysis/02_gene-enrichment/output/kegg_ora_sva.xlsx
+++ b/Proteomics/Terminal/analysis/02_gene-enrichment/output/kegg_ora_sva.xlsx
@@ -6,14 +6,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="AF_vs_Sham_RA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="AverageDiseaseEffect" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AF_vs_Sham_LA" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">Cluster</t>
   </si>
@@ -42,6 +41,15 @@
     <t xml:space="preserve">BgRatio</t>
   </si>
   <si>
+    <t xml:space="preserve">RichFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoldEnrichment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zScore</t>
+  </si>
+  <si>
     <t xml:space="preserve">pvalue</t>
   </si>
   <si>
@@ -57,82 +65,154 @@
     <t xml:space="preserve">Count</t>
   </si>
   <si>
-    <t xml:space="preserve">AF_vs_Sham_RA.up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF_vs_Sham_RA</t>
+    <t xml:space="preserve">AF_vs_Sham_LA.down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF_vs_Sham_LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbohydrate metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb00051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fructose and mannose metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100065145/100051146/100034116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF_vs_Sham_LA.up</t>
   </si>
   <si>
     <t xml:space="preserve">up</t>
   </si>
   <si>
-    <t xml:space="preserve">ecb04820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytoskeleton in muscle cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/15</t>
+    <t xml:space="preserve">Organismal Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb04714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44/904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">807845/100057698/100057623/100058223/100063168/100034201/100056123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endocrine and metabolic disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb04932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-alcoholic fatty liver disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">807845/100057698/100057623/100058223/100063168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb00190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33/904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer: overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb05208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical carcinogenesis - reactive oxygen species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40/904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nervous system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb04723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrograde endocannabinoid signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100057698/100057623/100058223/100063168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiovascular disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb05415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetic cardiomyopathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48/904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurodegenerative disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecb05014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amyotrophic lateral sclerosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/21</t>
   </si>
   <si>
     <t xml:space="preserve">77/904</t>
   </si>
   <si>
-    <t xml:space="preserve">111771872/100056943/100071760/791234/100072581/100064165/100055451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organismal Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endocrine system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecb04922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glucagon signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100070818/100051524/100065274/100057085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AverageDiseaseEffect.up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AverageDiseaseEffect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100070700/111771872/100059397/100055741/100056943/100071760/791234/100072581/100065275/100064165/100055451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100033997/100070818/100051524/100065274/100034098/100057085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endocrine and metabolic disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecb04932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-alcoholic fatty liver disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">807845/100057698/100064992/100629515/100068855/100034098</t>
+    <t xml:space="preserve">807845/100057698/100057623/100058223/100063168/100146715</t>
   </si>
 </sst>
 </file>
@@ -180,9 +260,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N3" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:N3"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q9" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:Q9"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="Cluster"/>
     <tableColumn id="2" name="Contrast"/>
     <tableColumn id="3" name="Direction"/>
@@ -192,34 +272,14 @@
     <tableColumn id="7" name="Description"/>
     <tableColumn id="8" name="GeneRatio"/>
     <tableColumn id="9" name="BgRatio"/>
-    <tableColumn id="10" name="pvalue"/>
-    <tableColumn id="11" name="p.adjust"/>
-    <tableColumn id="12" name="qvalue"/>
-    <tableColumn id="13" name="geneID"/>
-    <tableColumn id="14" name="Count"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:N4" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:N4"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Cluster"/>
-    <tableColumn id="2" name="Contrast"/>
-    <tableColumn id="3" name="Direction"/>
-    <tableColumn id="4" name="category"/>
-    <tableColumn id="5" name="subcategory"/>
-    <tableColumn id="6" name="ID"/>
-    <tableColumn id="7" name="Description"/>
-    <tableColumn id="8" name="GeneRatio"/>
-    <tableColumn id="9" name="BgRatio"/>
-    <tableColumn id="10" name="pvalue"/>
-    <tableColumn id="11" name="p.adjust"/>
-    <tableColumn id="12" name="qvalue"/>
-    <tableColumn id="13" name="geneID"/>
-    <tableColumn id="14" name="Count"/>
+    <tableColumn id="10" name="RichFactor"/>
+    <tableColumn id="11" name="FoldEnrichment"/>
+    <tableColumn id="12" name="zScore"/>
+    <tableColumn id="13" name="pvalue"/>
+    <tableColumn id="14" name="p.adjust"/>
+    <tableColumn id="15" name="qvalue"/>
+    <tableColumn id="16" name="geneID"/>
+    <tableColumn id="17" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,89 +613,438 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0000919309077177135</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00367723630870854</v>
+        <v>13.9076923076923</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00348369755561862</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
+        <v>6.08583330427689</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.000959016487924391</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>0.0306885276135805</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0292752401576919</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.159090909090909</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.84848484848485</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.13046831981382</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0000278129391030943</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.00150189871156709</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0012296246761368</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.000797566388611651</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.015951327772233</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0151117842052734</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="n">
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.178571428571429</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.68707482993197</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.54033871208655</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.000284485868678191</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.00768111845431116</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0062886349918337</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.151515151515152</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.52236652236652</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.98134120879087</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.000636947301069993</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0114650514192599</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.009386591805242</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.38095238095238</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.36832385031017</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0015879777006429</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0214376989586792</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.01755133248079</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.153846153846154</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.62271062271062</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.48392479089257</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.00231338307260599</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0249845371841447</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0204551766419898</v>
+      </c>
+      <c r="P7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.48412698412698</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.82341009249782</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.00365847489515094</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0329262740563584</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0269571834379543</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0779220779220779</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.3543599257885</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.32919041391135</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.00605409435343558</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0467030135836459</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0382363853901194</v>
+      </c>
+      <c r="P9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -645,193 +1054,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.00051580708868868</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0404535017616807</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0376880778662966</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.00139494833660968</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0404535017616807</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0376880778662966</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.00139494833660968</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0404535017616807</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0376880778662966</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId4"/>
-  </tableParts>
-</worksheet>
 </file>